--- a/Model/HyperTuning_GoodReads.xlsx
+++ b/Model/HyperTuning_GoodReads.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linkun/Documents/R-F/Experiments/DynamicsOfCalibration/DynamicCalibrationUMAP/Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linkun/Documents/R-F/Experiments/Code/Calibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE28787-6532-E746-B4F5-16C78DF79137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA43DBA7-436E-6349-BBBE-F3AB3B8F045C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="11940" windowHeight="18680" xr2:uid="{368DDCCC-0036-354F-9288-980E685A3966}"/>
+    <workbookView xWindow="-17860" yWindow="500" windowWidth="11940" windowHeight="15120" activeTab="1" xr2:uid="{368DDCCC-0036-354F-9288-980E685A3966}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BPR" sheetId="1" r:id="rId1"/>
+    <sheet name="ItemKNN" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>embedding_size</t>
   </si>
@@ -51,6 +52,12 @@
   </si>
   <si>
     <t>hy</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>shrink</t>
   </si>
 </sst>
 </file>
@@ -67,6 +74,7 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,9 +100,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,9 +423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F37B96-966E-124C-923D-B7B9D3676B96}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -713,4 +723,308 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C887EB-F941-FD4C-B68B-663DCAE2C99C}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="E2">
+        <v>5.6399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0.14380000000000001</v>
+      </c>
+      <c r="E3">
+        <v>9.2600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.1263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.16980000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.1181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>0.18240000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.13619999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.13159999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>0.17169999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.15079999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.16650000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.15540000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.14829999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.14380000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.1459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.1414</v>
+      </c>
+      <c r="E12">
+        <v>0.14729999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.13370000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.15040000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.1285</v>
+      </c>
+      <c r="E14">
+        <v>0.1502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.126</v>
+      </c>
+      <c r="E15">
+        <v>0.15479999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>0.1195</v>
+      </c>
+      <c r="E16">
+        <v>0.14990000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.12559999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.1618</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>